--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_030_OptionletStripper6M_ATM.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_030_OptionletStripper6M_ATM.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="CapFloorTermVolCurve">'General Settings'!$D$15</definedName>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Trigger</t>
   </si>
@@ -78,6 +75,9 @@
   <si>
     <t>EUR</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +88,7 @@
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -370,22 +370,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,7 +666,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
@@ -691,13 +675,13 @@
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="4" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="2:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>3</v>
       </c>
@@ -705,13 +689,13 @@
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="2:5" s="4" customFormat="1">
+    <row r="3" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5" s="4" customFormat="1">
+    <row r="4" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="30" t="s">
         <v>0</v>
@@ -719,7 +703,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="2:5" s="4" customFormat="1">
+    <row r="5" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="30" t="s">
         <v>1</v>
@@ -729,7 +713,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="2:5" s="4" customFormat="1">
+    <row r="6" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="30" t="s">
         <v>6</v>
@@ -739,7 +723,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5" s="4" customFormat="1">
+    <row r="7" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="30" t="s">
         <v>7</v>
@@ -749,18 +733,17 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="2:5" s="4" customFormat="1">
+    <row r="8" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\030_CapVolBootstrap\020_MarketMetaData\</v>
+      <c r="D8" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="2:5" s="4" customFormat="1">
+    <row r="9" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="30" t="s">
         <v>9</v>
@@ -770,14 +753,14 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="2:5" s="4" customFormat="1">
+    <row r="10" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="2:5" s="4" customFormat="1"/>
-    <row r="12" spans="2:5" s="4" customFormat="1" ht="15.75">
+    <row r="11" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>10</v>
       </c>
@@ -785,13 +768,13 @@
       <c r="D12" s="34"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="2:5" s="4" customFormat="1">
+    <row r="13" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" s="4" customFormat="1">
+    <row r="14" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="19" t="s">
         <v>14</v>
@@ -801,7 +784,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" s="4" customFormat="1">
+    <row r="15" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="19" t="s">
         <v>12</v>
@@ -812,7 +795,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" s="4" customFormat="1">
+    <row r="16" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="19" t="s">
         <v>13</v>
@@ -823,7 +806,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:256" s="4" customFormat="1">
+    <row r="17" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="19" t="s">
         <v>5</v>
@@ -834,7 +817,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:256" s="4" customFormat="1">
+    <row r="18" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="22" t="s">
         <v>4</v>
@@ -845,7 +828,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:256" s="4" customFormat="1">
+    <row r="19" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="24" t="s">
         <v>2</v>
@@ -856,7 +839,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:256" s="15" customFormat="1">
+    <row r="20" spans="1:256" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="13"/>
       <c r="C20" s="26" t="s">
@@ -1119,7 +1102,7 @@
       <c r="IU20" s="4"/>
       <c r="IV20" s="4"/>
     </row>
-    <row r="21" spans="1:256" s="15" customFormat="1">
+    <row r="21" spans="1:256" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="13"/>
       <c r="C21" s="28" t="s">
@@ -1382,7 +1365,7 @@
       <c r="IU21" s="4"/>
       <c r="IV21" s="4"/>
     </row>
-    <row r="22" spans="1:256" s="15" customFormat="1">
+    <row r="22" spans="1:256" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
@@ -1640,43 +1623,43 @@
       <c r="IU22" s="4"/>
       <c r="IV22" s="4"/>
     </row>
-    <row r="23" spans="1:256" s="4" customFormat="1"/>
-    <row r="24" spans="1:256" s="4" customFormat="1"/>
-    <row r="25" spans="1:256" s="4" customFormat="1"/>
-    <row r="26" spans="1:256" s="4" customFormat="1"/>
-    <row r="27" spans="1:256" s="4" customFormat="1"/>
-    <row r="28" spans="1:256" s="4" customFormat="1"/>
-    <row r="29" spans="1:256" s="4" customFormat="1"/>
-    <row r="30" spans="1:256" s="4" customFormat="1"/>
-    <row r="31" spans="1:256" s="4" customFormat="1"/>
-    <row r="32" spans="1:256" s="4" customFormat="1"/>
-    <row r="33" s="4" customFormat="1"/>
-    <row r="34" s="4" customFormat="1"/>
-    <row r="35" s="4" customFormat="1"/>
-    <row r="36" s="4" customFormat="1"/>
-    <row r="37" s="4" customFormat="1"/>
-    <row r="38" s="4" customFormat="1"/>
-    <row r="39" s="4" customFormat="1"/>
-    <row r="40" s="4" customFormat="1"/>
-    <row r="41" s="4" customFormat="1"/>
-    <row r="42" s="4" customFormat="1"/>
-    <row r="43" s="4" customFormat="1"/>
-    <row r="44" s="4" customFormat="1"/>
-    <row r="45" s="4" customFormat="1"/>
-    <row r="46" s="4" customFormat="1"/>
-    <row r="47" s="4" customFormat="1"/>
-    <row r="48" s="4" customFormat="1"/>
-    <row r="49" s="4" customFormat="1"/>
-    <row r="50" s="4" customFormat="1"/>
-    <row r="51" s="4" customFormat="1"/>
-    <row r="52" s="4" customFormat="1"/>
-    <row r="53" s="4" customFormat="1"/>
-    <row r="54" s="4" customFormat="1"/>
-    <row r="55" s="4" customFormat="1"/>
-    <row r="56" s="4" customFormat="1"/>
-    <row r="57" s="4" customFormat="1"/>
-    <row r="58" s="4" customFormat="1"/>
-    <row r="59" s="4" customFormat="1"/>
+    <row r="23" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B12:E12"/>

--- a/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_030_OptionletStripper6M_ATM.xlsx
+++ b/QuantLibXL/Data/XLS/030_CapVolBootstrap/020_MarketMetaData/EUR_030_OptionletStripper6M_ATM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Trigger</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>EUR</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -738,8 +735,9 @@
       <c r="C8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>16</v>
+      <c r="D8" s="32" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\030_CapVolBootstrap\020_MarketMetaData\</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -833,9 +831,9 @@
       <c r="C19" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="25" t="e">
         <f ca="1">IF(ISERROR(OptionletStripper2),_xll.ohRangeRetrieveError(OptionletStripper2),_xll.ohRangeRetrieveError(D18))</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1109,8 +1107,8 @@
         <v>7</v>
       </c>
       <c r="D21" s="29" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(OptionletStripper2,SerializationPath&amp;D20,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(OptionletStripper2,SerializationPath&amp;D20,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="4"/>
